--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_quota" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="228">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,666 +205,691 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name: test_quota_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 998GB of storage capacity in nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 999GB of storage capacity in nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 1000GB of storage capacity in nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 998GB of storage capacity in clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 999GB of storage capacity in clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 1000GB of storage capacity in clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default nas user can set quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default nas user can set quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default nas group can set quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default nas group can set quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas group should have 1000GB of storage capacity in clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas group should have 1000GB of storage capacity in nassahre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list all of quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharedisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsedCapacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -i 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountType: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Uid: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UsedCapacity: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=10GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_5,capacity=11GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=12GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=13GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of nasshare type should be dmodified in users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of clone type should be dmodified in users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of nasshare type should be dmodified in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of clone type should be dmodified in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 GB</t>
+  </si>
+  <si>
+    <t>12 GB</t>
+  </si>
+  <si>
+    <t>13 GB</t>
+  </si>
+  <si>
+    <t>quota -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nassahre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nassahre -s "role=user,name=test_quota_0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=user,name=test_quota_5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete all quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete all quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 100 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 100 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharedisk not exist</t>
+  </si>
+  <si>
+    <t>quota -i 100 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t clone -s "role=group,name=users,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t nasshare -s "role=user,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t clone -s "role=user,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share Disk id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i test -t clone -s "role=group,name=users,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t test -s "role=user,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=test,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=test,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=group,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=group,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=user,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User or group not found</t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of space</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=admin,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=user,name=admin,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_1,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=test_quota_group,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=group,name=test_quota_group,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_1,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User or group not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s "role=test,name=admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=test,name=admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s "role=user,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=user,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s "role=group,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=group,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -test -s "test=user,user=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -test</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -test</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a refresh -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -nasshare -s "test=user,user=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -nasshare -s "role=user,test=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -clone -s "role=group,test=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -clone -s "test=user,user=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -clone -s "test=user,user=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i</t>
+  </si>
+  <si>
+    <t>quota -a refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i 0 -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a add -i 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a add -i 0 -t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a add -i 0 -t nasshare </t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s</t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone</t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a mod -i 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a mod -i 0 -t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a mod -i 0 -t nasshare </t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s</t>
+  </si>
+  <si>
+    <t>quota -a del -i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a del -i 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a del -i 0 -t </t>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s</t>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s</t>
+  </si>
+  <si>
     <t>quota -a add -i 0 -t nasshare -s "role=group,name=test_quota_group,capacity=1000GB"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name: test_quota_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_quota_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 998GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 999GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 1000GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 998GB of storage capacity in clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 999GB of storage capacity in clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 1000GB of storage capacity in clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default nas user can set quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default nas user can set quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default nas group can set quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default nas group can set quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas group should have 1000GB of storage capacity in clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas group should have 1000GB of storage capacity in nassahre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list all of quota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharedisk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsedCapacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountType: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Uid: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UsedCapacity: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=10GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_5,capacity=11GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=12GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=13GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of nasshare type should be dmodified in users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of clone type should be dmodified in users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of nasshare type should be dmodified in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of clone type should be dmodified in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 GB</t>
-  </si>
-  <si>
-    <t>12 GB</t>
-  </si>
-  <si>
-    <t>13 GB</t>
-  </si>
-  <si>
-    <t>quota -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nassahre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nassahre -s "role=user,name=test_quota_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=user,name=test_quota_5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete specific quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete specific quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete all quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete all quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No quota found</t>
-  </si>
-  <si>
-    <t>quota test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 100 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 100 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharedisk not exist</t>
-  </si>
-  <si>
-    <t>quota -i 100 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t clone -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t nasshare -s "role=user,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t clone -s "role=user,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Share Disk id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i test -t clone -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t test -s "role=user,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=test,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=test,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User or group not found</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out of space</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=admin,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=user,name=admin,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_1,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=test_quota_group,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=group,name=test_quota_group,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_1,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User or group not found</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s "role=test,name=admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=test,name=admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s "role=user,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=user,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s "role=group,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=group,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -test -s "test=user,user=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -test</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -test</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a refresh -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -nasshare -s "test=user,user=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -nasshare -s "role=user,test=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -clone -s "role=group,test=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -clone -s "test=user,user=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -clone -s "test=user,user=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i</t>
-  </si>
-  <si>
-    <t>quota -a refresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i 0 -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a add -i 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a add -i 0 -t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a add -i 0 -t nasshare </t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a mod -i 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a mod -i 0 -t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a mod -i 0 -t nasshare </t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s</t>
-  </si>
-  <si>
-    <t>quota -a del -i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a del -i 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a del -i 0 -t </t>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s</t>
+    <t>quota -a del -i 0 -t nassahre -s "role=group,name=test_quota_group"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=group,name=test_quota_group"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific user quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific user quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific group quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific group quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1213,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1316,7 +1341,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1339,7 +1364,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1365,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1388,7 +1413,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1408,10 +1433,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1431,10 +1456,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1454,10 +1479,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -1477,7 +1502,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1500,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1523,13 +1548,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1546,13 +1571,13 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1569,13 +1594,13 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -1589,16 +1614,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -1649,74 +1674,74 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>76</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1759,92 +1784,92 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>86</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>87</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>82</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1878,18 +1903,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1931,58 +1956,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1994,18 +2019,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="69.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2024,58 +2049,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>118</v>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2161,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2116,7 +2169,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2124,23 +2177,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2148,7 +2201,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2156,7 +2209,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2164,39 +2217,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2204,7 +2257,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2212,7 +2265,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2220,39 +2273,39 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
         <v>137</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2260,7 +2313,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2268,7 +2321,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2276,7 +2329,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2284,39 +2337,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -2324,71 +2377,71 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -2396,7 +2449,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -2404,7 +2457,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -2412,7 +2465,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -2420,7 +2473,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -2428,7 +2481,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -2436,7 +2489,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -2444,7 +2497,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -2452,39 +2505,39 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -2492,7 +2545,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -2500,7 +2553,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -2508,7 +2561,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -2544,7 +2597,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2552,7 +2605,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2560,7 +2613,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2568,7 +2621,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2576,7 +2629,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2584,7 +2637,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2592,7 +2645,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2600,7 +2653,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2608,7 +2661,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2616,7 +2669,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2624,7 +2677,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2632,7 +2685,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2640,7 +2693,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2648,7 +2701,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2656,7 +2709,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2664,7 +2717,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2672,7 +2725,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2680,7 +2733,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2688,7 +2741,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2696,7 +2749,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2732,7 +2785,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -2740,7 +2793,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2748,7 +2801,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2756,7 +2809,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2764,7 +2817,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2772,7 +2825,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2780,7 +2833,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2788,7 +2841,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2796,7 +2849,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2804,7 +2857,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2812,7 +2865,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2820,7 +2873,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2828,7 +2881,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2836,7 +2889,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2844,7 +2897,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -2852,7 +2905,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -2860,7 +2913,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -2868,7 +2921,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2876,7 +2929,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -2884,7 +2937,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2892,7 +2945,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2900,7 +2953,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2908,7 +2961,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2916,7 +2969,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -2924,7 +2977,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_quota" sheetId="1" r:id="rId1"/>
@@ -2021,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2765,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="add_quota" sheetId="1" r:id="rId1"/>
+    <sheet name="set_quota" sheetId="1" r:id="rId1"/>
     <sheet name="list_quota" sheetId="11" r:id="rId2"/>
     <sheet name="list_quota_by_verbose_mode" sheetId="12" r:id="rId3"/>
     <sheet name="refresh_quota" sheetId="13" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="217">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,22 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,capacity=1GB,name=test_quota_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,capacity=2GB,name=test_quota_1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name: test_quota_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,18 +80,6 @@
     <t>Status: ready</t>
   </si>
   <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,capacity=1GB,name=test_quota_5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,capacity=2GB,name=test_quota_6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>specific nas user should have 1GB of storage capacity in nasshare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,54 +109,6 @@
     <t>Name: test_quota_9</t>
   </si>
   <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,capacity=1GB,name=admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,capacity=1GB,name=admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,capacity=998GB,name=test_quota_2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,capacity=999GB,name=test_quota_3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,capacity=1000GB,name=test_quota_4"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,capacity=998GB,name=test_quota_7"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,capacity=999GB,name=test_quota_8"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,capacity=1000GB,name=test_quota_9"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=test_quota_group,capacity=1000GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Limited: 998 GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name: test_quota_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_quota_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>specific nas user should have 998GB of storage capacity in nasshare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default nas user can set quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default nas user can set quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>default nas group can set quota of nasshare type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -v -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name: users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,603 +197,634 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sharedisk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>quota -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=10GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_5,capacity=11GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=12GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=13GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of nasshare type should be dmodified in users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of clone type should be dmodified in users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of nasshare type should be dmodified in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota of clone type should be dmodified in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 GB</t>
+  </si>
+  <si>
+    <t>12 GB</t>
+  </si>
+  <si>
+    <t>13 GB</t>
+  </si>
+  <si>
+    <t>quota -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nassahre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nassahre -s "role=user,name=test_quota_0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=user,name=test_quota_5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete all quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete all quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 100 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 100 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharedisk not exist</t>
+  </si>
+  <si>
+    <t>quota -i 100 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t clone -s "role=group,name=users,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t nasshare -s "role=user,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 100 -t clone -s "role=user,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share Disk id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clone id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i test -t clone -s "role=group,name=users,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t test -s "role=user,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=test,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=test,name=admin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=group,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=group,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=user,name=test,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User or group not found</t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of space</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=admin,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=user,name=admin,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_1,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=test_quota_group,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s "role=group,name=test_quota_group,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_1,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User or group not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s "role=test,name=admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=test,name=admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s "role=user,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=user,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s "role=group,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=group,name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -test -s "test=user,user=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -test</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -test</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a refresh -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -nasshare -s "test=user,user=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -nasshare -s "role=user,test=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -clone -s "role=group,test=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -clone -s "test=user,user=adimin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -clone -s "test=user,user=adimin,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -i 0 -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a mod -i</t>
+  </si>
+  <si>
+    <t>quota -a refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a refresh -i 0 -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a add -i 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a add -i 0 -t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a add -i 0 -t nasshare </t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t nasshare -s</t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone</t>
+  </si>
+  <si>
+    <t>quota -a add -i 0 -t clone -s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a mod -i 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a mod -i 0 -t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a mod -i 0 -t nasshare </t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t nasshare -s</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone</t>
+  </si>
+  <si>
+    <t>quota -a mod -i 0 -t clone -s</t>
+  </si>
+  <si>
+    <t>quota -a del -i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a del -i 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quota -a del -i 0 -t </t>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nasshare -s</t>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s</t>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t nassahre -s "role=group,name=test_quota_group"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a del -i 0 -t clone -s "role=group,name=test_quota_group"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific user quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific user quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific group quota of nasshare type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete specific group quota of clone type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -i 0 -t nasshare -s "role=user,capacity=1GB,name=admin"</t>
+  </si>
+  <si>
+    <t>quota -a set -i 0 -t clone -s "role=user,capacity=1GB,name=admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 0 -t clone</t>
+  </si>
+  <si>
+    <t>quota -v -d 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 1 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 0 -t nasshare</t>
+  </si>
+  <si>
+    <t>quota -v -d 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 1 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=1GB,name=test_quota_0"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=2GB,name=test_quota_1"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=user,capacity=998GB,name=test_quota_2"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=user,capacity=999GB,name=test_quota_3"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=1000GB,name=test_quota_4"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t clone -s "role=user,capacity=1GB,name=test_quota_5"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t clone -s "role=user,capacity=2GB,name=test_quota_6"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t clone -s "role=user,capacity=998GB,name=test_quota_7"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t clone -s "role=user,capacity=999GB,name=test_quota_8"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t clone -s "role=user,capacity=1000GB,name=test_quota_9"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t clone -s "role=group,name=users,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t clone -s "role=group,name=test_quota_group_0,capacity=1000GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=group,name=test_quota_group_1,capacity=1000GB"</t>
+  </si>
+  <si>
+    <t>quota -d 0 -t nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -d 0 -t clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>UsedCapacity</t>
   </si>
   <si>
     <t>AccountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsedCapacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountType: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Uid: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UsedCapacity: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=10GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_5,capacity=11GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=12GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=13GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of nasshare type should be dmodified in users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of clone type should be dmodified in users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of nasshare type should be dmodified in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota of clone type should be dmodified in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 GB</t>
-  </si>
-  <si>
-    <t>12 GB</t>
-  </si>
-  <si>
-    <t>13 GB</t>
-  </si>
-  <si>
-    <t>quota -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nassahre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nassahre -s "role=user,name=test_quota_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=user,name=test_quota_5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete all quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete all quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 100 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 100 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharedisk not exist</t>
-  </si>
-  <si>
-    <t>quota -i 100 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t clone -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t nasshare -s "role=user,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 100 -t clone -s "role=user,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Share Disk id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i test -t clone -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t test -s "role=user,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=test,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=test,name=admin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,name=test,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User or group not found</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=user,name=test_quota_0,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=user,name=test_quota_0,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s "role=group,name=users,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=users,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out of space</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=admin,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=user,name=admin,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=group,name=users,capacity=100TB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=user,name=test_quota_1,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=group,name=test_quota_group,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s "role=group,name=test_quota_group,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s "role=user,name=test_quota_1,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User or group not found</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s "role=test,name=admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=test,name=admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s "role=user,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=user,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s "role=group,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=group,name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -test -s "test=user,user=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -test</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -test</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -nasshare -s "test=user,user=adimin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -nasshare -s "role=user,test=adimin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -clone -s "role=group,test=adimin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a refresh -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -nasshare -s "test=user,user=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -nasshare -s "role=user,test=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -clone -s "role=group,test=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -clone -s "test=user,user=adimin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -clone -s "test=user,user=adimin,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -i 0 -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a mod -i</t>
-  </si>
-  <si>
-    <t>quota -a refresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a refresh -i 0 -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a add -i 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a add -i 0 -t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a add -i 0 -t nasshare </t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t clone -s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a mod -i 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a mod -i 0 -t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a mod -i 0 -t nasshare </t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone</t>
-  </si>
-  <si>
-    <t>quota -a mod -i 0 -t clone -s</t>
-  </si>
-  <si>
-    <t>quota -a del -i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a del -i 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quota -a del -i 0 -t </t>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s</t>
-  </si>
-  <si>
-    <t>quota -a add -i 0 -t nasshare -s "role=group,name=test_quota_group,capacity=1000GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t nassahre -s "role=group,name=test_quota_group"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a del -i 0 -t clone -s "role=group,name=test_quota_group"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete specific user quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete specific user quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete specific group quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete specific group quota of clone type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1236,18 +1171,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="85.375" customWidth="1"/>
     <col min="2" max="2" width="77.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -1269,370 +1204,324 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1644,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,13 +1544,13 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1672,76 +1561,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1771,7 +1648,7 @@
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1782,94 +1659,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1903,18 +1714,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1956,58 +1767,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2049,86 +1860,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2139,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +1972,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2169,7 +1980,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2177,23 +1988,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2201,7 +2012,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2209,7 +2020,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2217,39 +2028,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2257,7 +2068,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2265,7 +2076,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2273,39 +2084,39 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2313,7 +2124,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2321,7 +2132,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2329,7 +2140,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2337,39 +2148,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -2377,71 +2188,71 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -2449,7 +2260,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -2457,7 +2268,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -2465,7 +2276,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -2473,7 +2284,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -2481,7 +2292,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -2489,7 +2300,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -2497,7 +2308,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -2505,39 +2316,39 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -2545,7 +2356,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -2553,7 +2364,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -2561,10 +2372,20 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2399,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2597,7 +2418,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2605,7 +2426,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2613,7 +2434,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2621,7 +2442,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2629,7 +2450,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2637,7 +2458,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2645,7 +2466,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2653,7 +2474,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2661,7 +2482,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2669,7 +2490,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2677,7 +2498,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2685,7 +2506,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2693,7 +2514,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2701,7 +2522,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2709,7 +2530,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2717,7 +2538,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2725,7 +2546,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2733,7 +2554,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2741,7 +2562,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2749,7 +2570,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2765,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2785,7 +2606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -2793,7 +2614,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2801,7 +2622,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2809,7 +2630,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2817,7 +2638,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2825,7 +2646,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2833,7 +2654,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2841,7 +2662,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2849,7 +2670,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2857,7 +2678,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2865,7 +2686,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2873,7 +2694,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2881,7 +2702,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2889,7 +2710,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2897,7 +2718,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -2905,7 +2726,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -2913,7 +2734,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -2921,7 +2742,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2929,7 +2750,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -2937,7 +2758,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2945,7 +2766,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2953,7 +2774,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2961,7 +2782,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2969,7 +2790,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -2977,7 +2798,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="set_quota" sheetId="1" r:id="rId1"/>
@@ -67,48 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Limited: 1 GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limited: 2 GB</t>
-  </si>
-  <si>
-    <t>Status: ready</t>
-  </si>
-  <si>
-    <t>specific nas user should have 1GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 2GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limited: 998 GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limited: 999 GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limited: 1 TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 998GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 999GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 1000GB of storage capacity in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quota</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,25 +129,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=user,capacity=998GB,name=test_quota_2"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=user,capacity=999GB,name=test_quota_3"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=1000GB,name=test_quota_4"</t>
-  </si>
-  <si>
     <t>quota -d 0 -t nasshare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>UsedCapacity</t>
-  </si>
-  <si>
     <t>AccountType</t>
   </si>
   <si>
@@ -206,12 +149,6 @@
     <t>Uid:</t>
   </si>
   <si>
-    <t>Limited:</t>
-  </si>
-  <si>
-    <t>UsedCapacity:</t>
-  </si>
-  <si>
     <t>Status:</t>
   </si>
   <si>
@@ -219,26 +156,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=2GB,name=test_quota_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name: test_quota_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=1GB,name=test_quota_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quota -a cancel -d 0 -t nasshare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=1GB,name=test_quota_6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>precondition: add quota</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,21 +192,9 @@
     <t>quota -d 100 -t test</t>
   </si>
   <si>
-    <t>quota -a set -d 0 -t test -s "role=user,name=admin,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test,capacity=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,capacity=100TB"</t>
-  </si>
-  <si>
     <t>quota -a set -d 0 -t nasshare -s ""</t>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,capacity=1GB,name=admin"</t>
-  </si>
-  <si>
     <t>quota -d 0 -test</t>
   </si>
   <si>
@@ -300,31 +213,12 @@
     <t>Can't do quota on user admin</t>
   </si>
   <si>
-    <t>Account type only can be user</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=group,name=users,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,capacity=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAS Share id=[100] is not existed</t>
   </si>
   <si>
-    <t>quota -a set -d 100 -t nasshare -s "role=user,name=test_quota_0,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAS user [test] doesn't exist</t>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=test,name=test_quota_0,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quota -a set -test</t>
   </si>
   <si>
@@ -352,22 +246,10 @@
     <t>quota -a set -d 0 -t clone -s</t>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,test=test_quota_0,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,test=1GB"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "test=user,name=test_quota_0,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -test -s "role=user,name=test_quota_0,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list all of quota by verbose mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +272,107 @@
   <si>
     <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=test_quota_0"</t>
+  </si>
+  <si>
+    <t>specific nas user should have 1GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=2GB,name=test_quota_0"</t>
+  </si>
+  <si>
+    <t>specific nas user should have 2GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=user,limit=998GB,name=test_quota_2"</t>
+  </si>
+  <si>
+    <t>specific nas user should have 998GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=user,limit=999GB,name=test_quota_3"</t>
+  </si>
+  <si>
+    <t>specific nas user should have 999GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1000GB,name=test_quota_4"</t>
+  </si>
+  <si>
+    <t>specific nas user should have 1000GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>Limit: 1 GB</t>
+  </si>
+  <si>
+    <t>Limit: 2 GB</t>
+  </si>
+  <si>
+    <t>Limit: 998 GB</t>
+  </si>
+  <si>
+    <t>Limit: 999 GB</t>
+  </si>
+  <si>
+    <t>Limit: 1 TB</t>
+  </si>
+  <si>
+    <t>Status: Ready</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Used:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit:</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=test_quota_6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t test -s "role=user,name=admin,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 100 -t nasshare -s "role=user,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=test,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=test"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=100TB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=admin"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=group,name=users,limit=1GB"</t>
+  </si>
+  <si>
+    <t>Can't set quota to default group [users]</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -test -s "role=user,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "test=user,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,test=test_quota_0,limit=1GB"</t>
   </si>
 </sst>
 </file>
@@ -739,7 +722,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,13 +752,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -784,44 +767,44 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -830,21 +813,21 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -853,21 +836,21 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -876,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +877,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,8 +885,8 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -921,42 +904,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +954,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,8 +964,8 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1000,54 +983,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1064,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1082,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1119,26 +1102,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1136,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1180,16 +1163,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1204,12 +1187,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="86.375" customWidth="1"/>
+    <col min="1" max="1" width="82.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1223,7 +1206,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1231,7 +1214,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1239,7 +1222,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1247,7 +1230,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1255,7 +1238,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1263,15 +1246,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1279,15 +1262,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1295,15 +1278,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1311,7 +1294,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1319,7 +1302,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1327,18 +1310,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1371,15 +1354,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1387,7 +1370,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1395,7 +1378,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1403,7 +1386,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1411,7 +1394,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1419,7 +1402,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1427,7 +1410,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1435,7 +1418,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1451,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +1454,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1479,7 +1462,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1487,7 +1470,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1495,7 +1478,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1503,7 +1486,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1511,7 +1494,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1519,7 +1502,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1527,7 +1510,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1535,7 +1518,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1543,7 +1526,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1551,7 +1534,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1559,7 +1542,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1567,10 +1550,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="set_quota" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name: test_quota_2</t>
-  </si>
-  <si>
-    <t>Name: test_quota_3</t>
-  </si>
-  <si>
-    <t>Name: test_quota_4</t>
-  </si>
-  <si>
     <t>AccountType: User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list all of quota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list quota of nasshare type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quota -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,13 +102,6 @@
   </si>
   <si>
     <t>quota -v -d 0 -t nasshare</t>
-  </si>
-  <si>
-    <t>quota -v -d 0 -t nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -d 1 -t nasshare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,21 +262,12 @@
     <t>specific nas user should have 2GB of storage limit in nasshare</t>
   </si>
   <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=user,limit=998GB,name=test_quota_2"</t>
-  </si>
-  <si>
     <t>specific nas user should have 998GB of storage limit in nasshare</t>
   </si>
   <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=user,limit=999GB,name=test_quota_3"</t>
-  </si>
-  <si>
     <t>specific nas user should have 999GB of storage limit in nasshare</t>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1000GB,name=test_quota_4"</t>
-  </si>
-  <si>
     <t>specific nas user should have 1000GB of storage limit in nasshare</t>
   </si>
   <si>
@@ -373,6 +340,67 @@
   </si>
   <si>
     <t>quota -a set -d 0 -t nasshare -s "role=user,test=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=998GB,name=test_quota_group_0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=999GB,name=test_quota_group_0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 3GB of storage limit in nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group_1</t>
+  </si>
+  <si>
+    <t>AccountType: Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=3GB,name=test_quota_1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=1000GB,name=test_quota_group_1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -d 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list all of quota on nasshare 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list all of quota on nasshare 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_group_0</t>
+  </si>
+  <si>
+    <t>test_quota_group_1</t>
   </si>
 </sst>
 </file>
@@ -719,19 +747,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="79.625" customWidth="1"/>
+    <col min="1" max="1" width="90.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,117 +780,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -874,18 +925,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.875" bestFit="1" customWidth="1"/>
@@ -904,42 +954,56 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -983,54 +1047,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1064,10 +1128,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1102,26 +1166,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1163,16 +1227,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1270,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1214,7 +1278,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1222,7 +1286,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1230,7 +1294,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1238,7 +1302,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1246,15 +1310,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1262,15 +1326,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1278,15 +1342,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1294,7 +1358,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1302,7 +1366,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1310,18 +1374,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1354,15 +1418,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1370,7 +1434,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1378,7 +1442,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1386,7 +1450,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1394,7 +1458,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1402,7 +1466,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1410,7 +1474,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1418,7 +1482,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1454,7 +1518,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1462,7 +1526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1470,7 +1534,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1478,7 +1542,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1486,7 +1550,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1494,7 +1558,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1502,7 +1566,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1510,7 +1574,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1518,7 +1582,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1526,7 +1590,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1534,7 +1598,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1542,7 +1606,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1550,10 +1614,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="set_quota" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>test_quota_group_1</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -927,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,143 +1256,191 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="82.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1396,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,84 +1464,114 @@
     <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1496,128 +1582,171 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="set_quota" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0"</t>
-  </si>
-  <si>
     <t>quota of user for test_quota_0 should be deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,164 +247,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>specific nas user should have 1GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=2GB,name=test_quota_0"</t>
+  </si>
+  <si>
+    <t>specific nas user should have 2GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>specific nas user should have 998GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>specific nas user should have 999GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>specific nas user should have 1000GB of storage limit in nasshare</t>
+  </si>
+  <si>
+    <t>Limit: 1 GB</t>
+  </si>
+  <si>
+    <t>Limit: 2 GB</t>
+  </si>
+  <si>
+    <t>Limit: 998 GB</t>
+  </si>
+  <si>
+    <t>Limit: 999 GB</t>
+  </si>
+  <si>
+    <t>Limit: 1 TB</t>
+  </si>
+  <si>
+    <t>Status: Ready</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Used:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit:</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=test_quota_6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t test -s "role=user,name=admin,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 100 -t nasshare -s "role=user,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=test,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=test"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=100TB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=admin"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=group,name=users,limit=1GB"</t>
+  </si>
+  <si>
+    <t>Can't set quota to default group [users]</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -test -s "role=user,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "test=user,name=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,test=test_quota_0,limit=1GB"</t>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=998GB,name=test_quota_group_0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=999GB,name=test_quota_group_0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific nas user should have 3GB of storage limit in nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -v -d 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_quota_group_1</t>
+  </si>
+  <si>
+    <t>AccountType: Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=3GB,name=test_quota_1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=1000GB,name=test_quota_group_1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -d 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list all of quota on nasshare 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list all of quota on nasshare 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quota_group_0</t>
+  </si>
+  <si>
+    <t>test_quota_group_1</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=test_quota_0"</t>
-  </si>
-  <si>
-    <t>specific nas user should have 1GB of storage limit in nasshare</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=2GB,name=test_quota_0"</t>
-  </si>
-  <si>
-    <t>specific nas user should have 2GB of storage limit in nasshare</t>
-  </si>
-  <si>
-    <t>specific nas user should have 998GB of storage limit in nasshare</t>
-  </si>
-  <si>
-    <t>specific nas user should have 999GB of storage limit in nasshare</t>
-  </si>
-  <si>
-    <t>specific nas user should have 1000GB of storage limit in nasshare</t>
-  </si>
-  <si>
-    <t>Limit: 1 GB</t>
-  </si>
-  <si>
-    <t>Limit: 2 GB</t>
-  </si>
-  <si>
-    <t>Limit: 998 GB</t>
-  </si>
-  <si>
-    <t>Limit: 999 GB</t>
-  </si>
-  <si>
-    <t>Limit: 1 TB</t>
-  </si>
-  <si>
-    <t>Status: Ready</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Used</t>
-  </si>
-  <si>
-    <t>Used:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit:</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=test_quota_6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t test -s "role=user,name=admin,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 100 -t nasshare -s "role=user,name=test_quota_0,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=test,name=test_quota_0,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=test"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=100TB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=1GB,name=admin"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=group,name=users,limit=1GB"</t>
-  </si>
-  <si>
-    <t>Can't set quota to default group [users]</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -test -s "role=user,name=test_quota_0,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "test=user,name=test_quota_0,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,test=test_quota_0,limit=1GB"</t>
-  </si>
-  <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=998GB,name=test_quota_group_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=999GB,name=test_quota_group_0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific nas user should have 3GB of storage limit in nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_quota_group_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_quota_group_1</t>
-  </si>
-  <si>
-    <t>AccountType: Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t nasshare -s "role=user,limit=3GB,name=test_quota_1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -a set -d 1 -t nasshare -s "role=group,limit=1000GB,name=test_quota_group_1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list all of quota on nasshare 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list all of quota on nasshare 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_group_0</t>
-  </si>
-  <si>
-    <t>test_quota_group_1</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +760,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,13 +790,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -803,21 +805,21 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -826,21 +828,21 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -849,79 +851,79 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -965,16 +967,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -985,16 +987,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1002,16 +1004,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1070,10 +1072,10 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -1084,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1096,10 +1098,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1139,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1176,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1185,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1207,13 +1209,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.625" customWidth="1"/>
     <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
@@ -1235,16 +1237,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1292,7 +1294,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1303,7 +1305,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1325,7 +1327,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1336,18 +1338,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1358,18 +1360,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1380,7 +1382,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1413,7 +1415,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1424,24 +1426,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1480,87 +1482,87 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1571,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1584,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1603,12 +1605,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1619,7 +1621,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1641,7 +1643,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1652,7 +1654,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1674,7 +1676,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1685,7 +1687,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1696,7 +1698,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1707,7 +1709,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1729,7 +1731,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1740,10 +1742,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="set_quota" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,9 @@
   <si>
     <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,limit=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input size is over NAS share's capacity range</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="set_quota" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>quota -a set -d 0 -t nasshare -s</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t clone</t>
-  </si>
-  <si>
-    <t>quota -a set -d 0 -t clone -s</t>
   </si>
   <si>
     <t>quota -a set -d 0 -t nasshare -s "role=user,name=test_quota_0,test=1GB"</t>
@@ -763,7 +757,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,13 +787,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -808,21 +802,21 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -831,21 +825,21 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -854,79 +848,79 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -970,16 +964,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -990,16 +984,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1007,16 +1001,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1075,10 +1069,10 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -1089,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1101,10 +1095,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1122,7 +1116,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1144,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1173,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1190,7 +1184,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1240,7 +1234,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1263,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1330,7 +1324,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1341,7 +1335,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -1352,7 +1346,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1363,7 +1357,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1374,7 +1368,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1385,13 +1379,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1429,7 +1423,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -1440,13 +1434,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1460,13 +1454,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="76.625" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1477,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1485,10 +1480,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1499,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1510,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1521,51 +1516,51 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1576,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1587,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1608,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1701,7 +1696,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1712,7 +1707,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1723,34 +1718,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/quota.xlsx
+++ b/data/quota.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,18 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -v -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quota -v -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name: test_quota_group_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,24 +361,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quota -d 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list all of quota on nasshare 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list all of quota on nasshare 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quota_group_0</t>
-  </si>
-  <si>
-    <t>test_quota_group_1</t>
-  </si>
-  <si>
     <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +382,18 @@
   </si>
   <si>
     <t>Input size is over NAS share's capacity range</t>
+  </si>
+  <si>
+    <t>quota -t nasshare -v -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -t nasshare -v -d 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota -t nasshare -v -d 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -756,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,13 +773,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -816,7 +802,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -833,13 +819,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -862,13 +848,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>69</v>
@@ -885,13 +871,13 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -902,19 +888,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -932,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -984,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -997,20 +983,6 @@
       </c>
       <c r="F3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1206,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1275,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1385,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1472,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1585,7 +1557,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1603,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
